--- a/results/ML_results/2.xlsx
+++ b/results/ML_results/2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOVI\Desktop\git_code\src\ML\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOVI\Desktop\git_code\results\ML_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C76ACF-9F11-471A-BA70-E1FB635583C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EEC1FC-DFD0-4E01-ACA2-E5439F3746C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="260">
   <si>
     <t>Seed</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>AUC</t>
-  </si>
-  <si>
-    <t>MCC</t>
   </si>
   <si>
     <t>Best_model</t>
@@ -864,18 +861,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -910,10 +901,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1218,9 +1209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4A5A91-5022-476F-B4B0-5E05F05B3F1C}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1228,141 +1217,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" t="s">
         <v>234</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>235</v>
-      </c>
-      <c r="D2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" t="s">
         <v>237</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>238</v>
-      </c>
-      <c r="D3" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" t="s">
         <v>240</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>241</v>
-      </c>
-      <c r="D4" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" t="s">
         <v>243</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>244</v>
-      </c>
-      <c r="D5" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" t="s">
         <v>246</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>247</v>
-      </c>
-      <c r="D6" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" t="s">
         <v>249</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>250</v>
-      </c>
-      <c r="D7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" t="s">
         <v>252</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>253</v>
-      </c>
-      <c r="D8" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" t="s">
         <v>255</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>256</v>
-      </c>
-      <c r="D9" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" t="s">
         <v>258</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>259</v>
-      </c>
-      <c r="D10" t="s">
-        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -1373,15 +1362,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1397,11 +1386,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -1414,14 +1400,11 @@
       <c r="D2">
         <v>0.62622418026866955</v>
       </c>
-      <c r="E2">
-        <v>0.31294810259725953</v>
-      </c>
-      <c r="F2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
@@ -1434,14 +1417,11 @@
       <c r="D3">
         <v>0.62622418026866955</v>
       </c>
-      <c r="E3">
-        <v>0.31294810259725953</v>
-      </c>
-      <c r="F3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
@@ -1454,14 +1434,11 @@
       <c r="D4">
         <v>0.62622418026866955</v>
       </c>
-      <c r="E4">
-        <v>0.31294810259725953</v>
-      </c>
-      <c r="F4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -1474,14 +1451,11 @@
       <c r="D5">
         <v>0.62622418026866955</v>
       </c>
-      <c r="E5">
-        <v>0.31294810259725953</v>
-      </c>
-      <c r="F5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
@@ -1494,14 +1468,11 @@
       <c r="D6">
         <v>0.62622418026866955</v>
       </c>
-      <c r="E6">
-        <v>0.31294810259725953</v>
-      </c>
-      <c r="F6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -1514,14 +1485,11 @@
       <c r="D7">
         <v>0.62622418026866955</v>
       </c>
-      <c r="E7">
-        <v>0.31294810259725953</v>
-      </c>
-      <c r="F7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
@@ -1534,14 +1502,11 @@
       <c r="D8">
         <v>0.62622418026866955</v>
       </c>
-      <c r="E8">
-        <v>0.31294810259725953</v>
-      </c>
-      <c r="F8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -1554,14 +1519,11 @@
       <c r="D9">
         <v>0.62622418026866955</v>
       </c>
-      <c r="E9">
-        <v>0.31294810259725953</v>
-      </c>
-      <c r="F9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -1574,14 +1536,11 @@
       <c r="D10">
         <v>0.62622418026866955</v>
       </c>
-      <c r="E10">
-        <v>0.31294810259725953</v>
-      </c>
-      <c r="F10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -1594,14 +1553,11 @@
       <c r="D11">
         <v>0.62622418026866955</v>
       </c>
-      <c r="E11">
-        <v>0.31294810259725953</v>
-      </c>
-      <c r="F11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -1614,14 +1570,11 @@
       <c r="D12">
         <v>0.62622418026866955</v>
       </c>
-      <c r="E12">
-        <v>0.31294810259725953</v>
-      </c>
-      <c r="F12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -1634,14 +1587,11 @@
       <c r="D13">
         <v>0.62622418026866955</v>
       </c>
-      <c r="E13">
-        <v>0.31294810259725953</v>
-      </c>
-      <c r="F13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
@@ -1654,14 +1604,11 @@
       <c r="D14">
         <v>0.62622418026866955</v>
       </c>
-      <c r="E14">
-        <v>0.31294810259725953</v>
-      </c>
-      <c r="F14" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
@@ -1674,14 +1621,11 @@
       <c r="D15">
         <v>0.62622418026866955</v>
       </c>
-      <c r="E15">
-        <v>0.31294810259725953</v>
-      </c>
-      <c r="F15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -1694,14 +1638,11 @@
       <c r="D16">
         <v>0.62622418026866955</v>
       </c>
-      <c r="E16">
-        <v>0.31294810259725953</v>
-      </c>
-      <c r="F16" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -1714,14 +1655,11 @@
       <c r="D17">
         <v>0.62622418026866955</v>
       </c>
-      <c r="E17">
-        <v>0.31294810259725953</v>
-      </c>
-      <c r="F17" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -1734,14 +1672,11 @@
       <c r="D18">
         <v>0.62622418026866955</v>
       </c>
-      <c r="E18">
-        <v>0.31294810259725953</v>
-      </c>
-      <c r="F18" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -1754,14 +1689,11 @@
       <c r="D19">
         <v>0.62622418026866955</v>
       </c>
-      <c r="E19">
-        <v>0.31294810259725953</v>
-      </c>
-      <c r="F19" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
@@ -1774,14 +1706,11 @@
       <c r="D20">
         <v>0.62622418026866955</v>
       </c>
-      <c r="E20">
-        <v>0.31294810259725953</v>
-      </c>
-      <c r="F20" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
@@ -1794,14 +1723,11 @@
       <c r="D21">
         <v>0.62622418026866955</v>
       </c>
-      <c r="E21">
-        <v>0.31294810259725953</v>
-      </c>
-      <c r="F21" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -1814,14 +1740,11 @@
       <c r="D22">
         <v>0.62622418026866955</v>
       </c>
-      <c r="E22">
-        <v>0.31294810259725953</v>
-      </c>
-      <c r="F22" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -1834,14 +1757,11 @@
       <c r="D23">
         <v>0.62622418026866955</v>
       </c>
-      <c r="E23">
-        <v>0.31294810259725953</v>
-      </c>
-      <c r="F23" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -1854,14 +1774,11 @@
       <c r="D24">
         <v>0.62622418026866955</v>
       </c>
-      <c r="E24">
-        <v>0.31294810259725953</v>
-      </c>
-      <c r="F24" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -1874,14 +1791,11 @@
       <c r="D25">
         <v>0.62622418026866955</v>
       </c>
-      <c r="E25">
-        <v>0.31294810259725953</v>
-      </c>
-      <c r="F25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -1894,14 +1808,11 @@
       <c r="D26">
         <v>0.62622418026866955</v>
       </c>
-      <c r="E26">
-        <v>0.31294810259725953</v>
-      </c>
-      <c r="F26" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -1914,14 +1825,11 @@
       <c r="D27">
         <v>0.62622418026866955</v>
       </c>
-      <c r="E27">
-        <v>0.31294810259725953</v>
-      </c>
-      <c r="F27" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -1934,14 +1842,11 @@
       <c r="D28">
         <v>0.62622418026866955</v>
       </c>
-      <c r="E28">
-        <v>0.31294810259725953</v>
-      </c>
-      <c r="F28" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -1954,14 +1859,11 @@
       <c r="D29">
         <v>0.62622418026866955</v>
       </c>
-      <c r="E29">
-        <v>0.31294810259725953</v>
-      </c>
-      <c r="F29" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -1974,14 +1876,11 @@
       <c r="D30">
         <v>0.62622418026866955</v>
       </c>
-      <c r="E30">
-        <v>0.31294810259725953</v>
-      </c>
-      <c r="F30" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -1994,32 +1893,25 @@
       <c r="D31">
         <v>0.62622418026866955</v>
       </c>
-      <c r="E31">
-        <v>0.31294810259725953</v>
-      </c>
-      <c r="F31" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+      <c r="E31" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
         <v>58.38±0</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
         <v>45.7±0</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>62.62±0</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>31.29±0</v>
       </c>
     </row>
   </sheetData>
@@ -2030,15 +1922,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2054,11 +1946,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -2071,14 +1960,11 @@
       <c r="D2">
         <v>0.6009027878087535</v>
       </c>
-      <c r="E2">
-        <v>0.32303808582157101</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
@@ -2091,14 +1977,11 @@
       <c r="D3">
         <v>0.6009027878087535</v>
       </c>
-      <c r="E3">
-        <v>0.32303808582157101</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
@@ -2111,14 +1994,11 @@
       <c r="D4">
         <v>0.6009027878087535</v>
       </c>
-      <c r="E4">
-        <v>0.32303808582157101</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -2131,14 +2011,11 @@
       <c r="D5">
         <v>0.6009027878087535</v>
       </c>
-      <c r="E5">
-        <v>0.32303808582157101</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
@@ -2151,14 +2028,11 @@
       <c r="D6">
         <v>0.6009027878087535</v>
       </c>
-      <c r="E6">
-        <v>0.32303808582157101</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -2171,14 +2045,11 @@
       <c r="D7">
         <v>0.74082045356059512</v>
       </c>
-      <c r="E7">
-        <v>0.49021297376202227</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
@@ -2191,14 +2062,11 @@
       <c r="D8">
         <v>0.70298281092012138</v>
       </c>
-      <c r="E8">
-        <v>0.41395342763795823</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -2211,14 +2079,11 @@
       <c r="D9">
         <v>0.6009027878087535</v>
       </c>
-      <c r="E9">
-        <v>0.32303808582157101</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -2231,14 +2096,11 @@
       <c r="D10">
         <v>0.6009027878087535</v>
       </c>
-      <c r="E10">
-        <v>0.32303808582157101</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -2251,14 +2113,11 @@
       <c r="D11">
         <v>0.70298281092012138</v>
       </c>
-      <c r="E11">
-        <v>0.41395342763795823</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -2271,14 +2130,11 @@
       <c r="D12">
         <v>0.70298281092012138</v>
       </c>
-      <c r="E12">
-        <v>0.41395342763795823</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -2291,14 +2147,11 @@
       <c r="D13">
         <v>0.6009027878087535</v>
       </c>
-      <c r="E13">
-        <v>0.32303808582157101</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
@@ -2311,14 +2164,11 @@
       <c r="D14">
         <v>0.6009027878087535</v>
       </c>
-      <c r="E14">
-        <v>0.32303808582157101</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
@@ -2331,14 +2181,11 @@
       <c r="D15">
         <v>0.6009027878087535</v>
       </c>
-      <c r="E15">
-        <v>0.32303808582157101</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -2351,14 +2198,11 @@
       <c r="D16">
         <v>0.6009027878087535</v>
       </c>
-      <c r="E16">
-        <v>0.32303808582157101</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -2371,14 +2215,11 @@
       <c r="D17">
         <v>0.70298281092012138</v>
       </c>
-      <c r="E17">
-        <v>0.41395342763795823</v>
-      </c>
-      <c r="F17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -2391,14 +2232,11 @@
       <c r="D18">
         <v>0.70298281092012138</v>
       </c>
-      <c r="E18">
-        <v>0.41395342763795823</v>
-      </c>
-      <c r="F18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -2411,14 +2249,11 @@
       <c r="D19">
         <v>0.6009027878087535</v>
       </c>
-      <c r="E19">
-        <v>0.32303808582157101</v>
-      </c>
-      <c r="F19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
@@ -2431,14 +2266,11 @@
       <c r="D20">
         <v>0.70298281092012138</v>
       </c>
-      <c r="E20">
-        <v>0.41395342763795823</v>
-      </c>
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
@@ -2451,14 +2283,11 @@
       <c r="D21">
         <v>0.70298281092012138</v>
       </c>
-      <c r="E21">
-        <v>0.41395342763795823</v>
-      </c>
-      <c r="F21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -2471,14 +2300,11 @@
       <c r="D22">
         <v>0.6009027878087535</v>
       </c>
-      <c r="E22">
-        <v>0.32303808582157101</v>
-      </c>
-      <c r="F22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -2491,14 +2317,11 @@
       <c r="D23">
         <v>0.74082045356059512</v>
       </c>
-      <c r="E23">
-        <v>0.49021297376202227</v>
-      </c>
-      <c r="F23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -2511,14 +2334,11 @@
       <c r="D24">
         <v>0.74082045356059512</v>
       </c>
-      <c r="E24">
-        <v>0.49021297376202227</v>
-      </c>
-      <c r="F24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -2531,14 +2351,11 @@
       <c r="D25">
         <v>0.70298281092012138</v>
       </c>
-      <c r="E25">
-        <v>0.41395342763795823</v>
-      </c>
-      <c r="F25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -2551,14 +2368,11 @@
       <c r="D26">
         <v>0.6009027878087535</v>
       </c>
-      <c r="E26">
-        <v>0.32303808582157101</v>
-      </c>
-      <c r="F26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -2571,14 +2385,11 @@
       <c r="D27">
         <v>0.6009027878087535</v>
       </c>
-      <c r="E27">
-        <v>0.32303808582157101</v>
-      </c>
-      <c r="F27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -2591,14 +2402,11 @@
       <c r="D28">
         <v>0.74082045356059512</v>
       </c>
-      <c r="E28">
-        <v>0.49021297376202227</v>
-      </c>
-      <c r="F28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -2611,14 +2419,11 @@
       <c r="D29">
         <v>0.6009027878087535</v>
       </c>
-      <c r="E29">
-        <v>0.32303808582157101</v>
-      </c>
-      <c r="F29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -2631,14 +2436,11 @@
       <c r="D30">
         <v>0.74082045356059512</v>
       </c>
-      <c r="E30">
-        <v>0.49021297376202227</v>
-      </c>
-      <c r="F30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -2651,32 +2453,25 @@
       <c r="D31">
         <v>0.70298281092012138</v>
       </c>
-      <c r="E31">
-        <v>0.41395342763795823</v>
-      </c>
-      <c r="F31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
         <v>67.28±3</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
         <v>72.39±4</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>65.48±6</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>37.82±7</v>
       </c>
     </row>
   </sheetData>
@@ -2687,15 +2482,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2711,11 +2506,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -2728,14 +2520,11 @@
       <c r="D2">
         <v>0.90517116856853963</v>
       </c>
-      <c r="E2">
-        <v>0.80307868897154766</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
@@ -2748,14 +2537,11 @@
       <c r="D3">
         <v>0.90837064856276184</v>
       </c>
-      <c r="E3">
-        <v>0.80947771231708998</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
@@ -2768,14 +2554,11 @@
       <c r="D4">
         <v>0.91015455727285866</v>
       </c>
-      <c r="E4">
-        <v>0.81305994657738079</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -2788,14 +2571,11 @@
       <c r="D5">
         <v>0.91015455727285866</v>
       </c>
-      <c r="E5">
-        <v>0.81305994657738079</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
@@ -2808,14 +2588,11 @@
       <c r="D6">
         <v>0.90351003900043336</v>
       </c>
-      <c r="E6">
-        <v>0.79977486332294812</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -2828,14 +2605,11 @@
       <c r="D7">
         <v>0.85035389282103135</v>
       </c>
-      <c r="E7">
-        <v>0.69935543682387646</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
@@ -2848,14 +2622,11 @@
       <c r="D8">
         <v>0.90184890943232709</v>
       </c>
-      <c r="E8">
-        <v>0.79648243055823942</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -2868,14 +2639,11 @@
       <c r="D9">
         <v>0.89801386682074247</v>
       </c>
-      <c r="E9">
-        <v>0.7888812053492813</v>
-      </c>
-      <c r="F9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -2888,14 +2656,11 @@
       <c r="D10">
         <v>0.90018777986422072</v>
       </c>
-      <c r="E10">
-        <v>0.79320125055104196</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -2908,14 +2673,11 @@
       <c r="D11">
         <v>0.90849342770475228</v>
       </c>
-      <c r="E11">
-        <v>0.80972108675971577</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -2928,14 +2690,11 @@
       <c r="D12">
         <v>0.89124656940632674</v>
       </c>
-      <c r="E12">
-        <v>0.7761952150395145</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -2948,14 +2707,11 @@
       <c r="D13">
         <v>0.89354326159179542</v>
       </c>
-      <c r="E13">
-        <v>0.7801863050379354</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
@@ -2968,14 +2724,11 @@
       <c r="D14">
         <v>0.90517116856853963</v>
       </c>
-      <c r="E14">
-        <v>0.80307868897154766</v>
-      </c>
-      <c r="F14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
@@ -2988,14 +2741,11 @@
       <c r="D15">
         <v>0.88523761375126397</v>
       </c>
-      <c r="E15">
-        <v>0.76415456922602287</v>
-      </c>
-      <c r="F15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -3008,14 +2758,11 @@
       <c r="D16">
         <v>0.89354326159179542</v>
       </c>
-      <c r="E16">
-        <v>0.7801863050379354</v>
-      </c>
-      <c r="F16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -3028,14 +2775,11 @@
       <c r="D17">
         <v>0.89903943377148643</v>
       </c>
-      <c r="E17">
-        <v>0.7910261508777402</v>
-      </c>
-      <c r="F17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -3048,14 +2792,11 @@
       <c r="D18">
         <v>0.90351003900043336</v>
       </c>
-      <c r="E18">
-        <v>0.79977486332294812</v>
-      </c>
-      <c r="F18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -3068,14 +2809,11 @@
       <c r="D19">
         <v>0.91462516250180559</v>
       </c>
-      <c r="E19">
-        <v>0.82233066704810931</v>
-      </c>
-      <c r="F19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
@@ -3088,14 +2826,11 @@
       <c r="D20">
         <v>0.89520439115990191</v>
       </c>
-      <c r="E20">
-        <v>0.78342384709833202</v>
-      </c>
-      <c r="F20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
@@ -3108,14 +2843,11 @@
       <c r="D21">
         <v>0.88689874331937024</v>
       </c>
-      <c r="E21">
-        <v>0.76734055346317154</v>
-      </c>
-      <c r="F21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -3128,14 +2860,11 @@
       <c r="D22">
         <v>0.90568395204391161</v>
       </c>
-      <c r="E22">
-        <v>0.80408365576719742</v>
-      </c>
-      <c r="F22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -3148,14 +2877,11 @@
       <c r="D23">
         <v>0.91513794597717746</v>
       </c>
-      <c r="E23">
-        <v>0.82314892841723097</v>
-      </c>
-      <c r="F23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -3168,14 +2894,11 @@
       <c r="D24">
         <v>0.8618590206557849</v>
       </c>
-      <c r="E24">
-        <v>0.72232128326503153</v>
-      </c>
-      <c r="F24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -3188,14 +2911,11 @@
       <c r="D25">
         <v>0.92178246424960275</v>
       </c>
-      <c r="E25">
-        <v>0.83677546626130939</v>
-      </c>
-      <c r="F25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -3208,14 +2928,11 @@
       <c r="D26">
         <v>0.88855987288747651</v>
       </c>
-      <c r="E26">
-        <v>0.77053659029124277</v>
-      </c>
-      <c r="F26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -3228,14 +2945,11 @@
       <c r="D27">
         <v>0.91513794597717746</v>
       </c>
-      <c r="E27">
-        <v>0.82314892841723097</v>
-      </c>
-      <c r="F27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -3248,14 +2962,11 @@
       <c r="D28">
         <v>0.86364292936588194</v>
       </c>
-      <c r="E28">
-        <v>0.72359524570103195</v>
-      </c>
-      <c r="F28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -3268,14 +2979,11 @@
       <c r="D29">
         <v>0.91347681640907141</v>
       </c>
-      <c r="E29">
-        <v>0.81977371885852834</v>
-      </c>
-      <c r="F29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -3288,14 +2996,11 @@
       <c r="D30">
         <v>0.85968510761230676</v>
       </c>
-      <c r="E30">
-        <v>0.71766180238487198</v>
-      </c>
-      <c r="F30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -3308,32 +3013,25 @@
       <c r="D31">
         <v>0.89686552072800818</v>
       </c>
-      <c r="E31">
-        <v>0.78667209542868421</v>
-      </c>
-      <c r="F31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+      <c r="E31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
         <v>88.87±2</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
         <v>89.45±2</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>89.69±2</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>78.74±3</v>
       </c>
     </row>
   </sheetData>
@@ -3344,15 +3042,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3368,11 +3066,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -3385,14 +3080,11 @@
       <c r="D2">
         <v>0.65929510327892538</v>
       </c>
-      <c r="E2">
-        <v>0.32748592779467672</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
@@ -3405,14 +3097,11 @@
       <c r="D3">
         <v>0.67756752852809465</v>
       </c>
-      <c r="E3">
-        <v>0.36980013262599848</v>
-      </c>
-      <c r="F3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
@@ -3425,14 +3114,11 @@
       <c r="D4">
         <v>0.68702152246136061</v>
       </c>
-      <c r="E4">
-        <v>0.39372975728454762</v>
-      </c>
-      <c r="F4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -3445,14 +3131,11 @@
       <c r="D5">
         <v>0.65929510327892538</v>
       </c>
-      <c r="E5">
-        <v>0.32748592779467672</v>
-      </c>
-      <c r="F5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
@@ -3465,14 +3148,11 @@
       <c r="D6">
         <v>0.65929510327892538</v>
       </c>
-      <c r="E6">
-        <v>0.32748592779467672</v>
-      </c>
-      <c r="F6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -3485,14 +3165,11 @@
       <c r="D7">
         <v>0.65929510327892538</v>
       </c>
-      <c r="E7">
-        <v>0.32748592779467672</v>
-      </c>
-      <c r="F7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
@@ -3505,14 +3182,11 @@
       <c r="D8">
         <v>0.65929510327892538</v>
       </c>
-      <c r="E8">
-        <v>0.32748592779467672</v>
-      </c>
-      <c r="F8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -3525,14 +3199,11 @@
       <c r="D9">
         <v>0.65929510327892538</v>
       </c>
-      <c r="E9">
-        <v>0.32748592779467672</v>
-      </c>
-      <c r="F9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -3545,14 +3216,11 @@
       <c r="D10">
         <v>0.68702152246136061</v>
       </c>
-      <c r="E10">
-        <v>0.39372975728454762</v>
-      </c>
-      <c r="F10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -3565,14 +3233,11 @@
       <c r="D11">
         <v>0.65929510327892538</v>
       </c>
-      <c r="E11">
-        <v>0.32748592779467672</v>
-      </c>
-      <c r="F11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -3585,14 +3250,11 @@
       <c r="D12">
         <v>0.68702152246136061</v>
       </c>
-      <c r="E12">
-        <v>0.39372975728454762</v>
-      </c>
-      <c r="F12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -3605,14 +3267,11 @@
       <c r="D13">
         <v>0.65929510327892538</v>
       </c>
-      <c r="E13">
-        <v>0.32748592779467672</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
@@ -3625,14 +3284,11 @@
       <c r="D14">
         <v>0.65929510327892538</v>
       </c>
-      <c r="E14">
-        <v>0.32748592779467672</v>
-      </c>
-      <c r="F14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
@@ -3645,14 +3301,11 @@
       <c r="D15">
         <v>0.65929510327892538</v>
       </c>
-      <c r="E15">
-        <v>0.32748592779467672</v>
-      </c>
-      <c r="F15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -3665,14 +3318,11 @@
       <c r="D16">
         <v>0.65929510327892538</v>
       </c>
-      <c r="E16">
-        <v>0.32748592779467672</v>
-      </c>
-      <c r="F16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -3685,14 +3335,11 @@
       <c r="D17">
         <v>0.65929510327892538</v>
       </c>
-      <c r="E17">
-        <v>0.32748592779467672</v>
-      </c>
-      <c r="F17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -3705,14 +3352,11 @@
       <c r="D18">
         <v>0.65929510327892538</v>
       </c>
-      <c r="E18">
-        <v>0.32748592779467672</v>
-      </c>
-      <c r="F18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -3725,14 +3369,11 @@
       <c r="D19">
         <v>0.68702152246136061</v>
       </c>
-      <c r="E19">
-        <v>0.39372975728454762</v>
-      </c>
-      <c r="F19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
@@ -3745,14 +3386,11 @@
       <c r="D20">
         <v>0.65929510327892538</v>
       </c>
-      <c r="E20">
-        <v>0.32748592779467672</v>
-      </c>
-      <c r="F20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
@@ -3765,14 +3403,11 @@
       <c r="D21">
         <v>0.65929510327892538</v>
       </c>
-      <c r="E21">
-        <v>0.32748592779467672</v>
-      </c>
-      <c r="F21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -3785,14 +3420,11 @@
       <c r="D22">
         <v>0.65929510327892538</v>
       </c>
-      <c r="E22">
-        <v>0.32748592779467672</v>
-      </c>
-      <c r="F22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -3805,14 +3437,11 @@
       <c r="D23">
         <v>0.65929510327892538</v>
       </c>
-      <c r="E23">
-        <v>0.32748592779467672</v>
-      </c>
-      <c r="F23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -3825,14 +3454,11 @@
       <c r="D24">
         <v>0.68702152246136061</v>
       </c>
-      <c r="E24">
-        <v>0.39372975728454762</v>
-      </c>
-      <c r="F24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -3845,14 +3471,11 @@
       <c r="D25">
         <v>0.65929510327892538</v>
       </c>
-      <c r="E25">
-        <v>0.32748592779467672</v>
-      </c>
-      <c r="F25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -3865,14 +3488,11 @@
       <c r="D26">
         <v>0.68702152246136061</v>
       </c>
-      <c r="E26">
-        <v>0.39372975728454762</v>
-      </c>
-      <c r="F26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -3885,14 +3505,11 @@
       <c r="D27">
         <v>0.65929510327892538</v>
       </c>
-      <c r="E27">
-        <v>0.32748592779467672</v>
-      </c>
-      <c r="F27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -3905,14 +3522,11 @@
       <c r="D28">
         <v>0.65929510327892538</v>
       </c>
-      <c r="E28">
-        <v>0.32748592779467672</v>
-      </c>
-      <c r="F28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -3925,14 +3539,11 @@
       <c r="D29">
         <v>0.65929510327892538</v>
       </c>
-      <c r="E29">
-        <v>0.32748592779467672</v>
-      </c>
-      <c r="F29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -3945,14 +3556,11 @@
       <c r="D30">
         <v>0.65929510327892538</v>
       </c>
-      <c r="E30">
-        <v>0.32748592779467672</v>
-      </c>
-      <c r="F30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -3965,32 +3573,25 @@
       <c r="D31">
         <v>0.68702152246136061</v>
       </c>
-      <c r="E31">
-        <v>0.39372975728454762</v>
-      </c>
-      <c r="F31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+      <c r="E31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
         <v>68.24±1</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
         <v>73.7±1</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>66.64±1</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>34.44±3</v>
       </c>
     </row>
   </sheetData>
@@ -4001,15 +3602,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4025,11 +3626,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -4042,14 +3640,11 @@
       <c r="D2">
         <v>0.66099956666185178</v>
       </c>
-      <c r="E2">
-        <v>0.31940751188179978</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
@@ -4062,14 +3657,11 @@
       <c r="D3">
         <v>0.69412104578939771</v>
       </c>
-      <c r="E3">
-        <v>0.3848384567225111</v>
-      </c>
-      <c r="F3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
@@ -4082,14 +3674,11 @@
       <c r="D4">
         <v>0.70728730319225763</v>
       </c>
-      <c r="E4">
-        <v>0.41091096190733239</v>
-      </c>
-      <c r="F4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -4102,14 +3691,11 @@
       <c r="D5">
         <v>0.64541383793153262</v>
       </c>
-      <c r="E5">
-        <v>0.28822896830108841</v>
-      </c>
-      <c r="F5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
@@ -4122,14 +3708,11 @@
       <c r="D6">
         <v>0.52568972988588769</v>
       </c>
-      <c r="E6">
-        <v>5.3501141777868563E-2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -4142,14 +3725,11 @@
       <c r="D7">
         <v>0.4712191246569406</v>
       </c>
-      <c r="E7">
-        <v>-5.8749953367961537E-2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
@@ -4162,14 +3742,11 @@
       <c r="D8">
         <v>0.71239347103856709</v>
       </c>
-      <c r="E8">
-        <v>0.42106292638200782</v>
-      </c>
-      <c r="F8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -4182,14 +3759,11 @@
       <c r="D9">
         <v>0.51890076556406184</v>
       </c>
-      <c r="E9">
-        <v>3.8545316496300892E-2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -4202,14 +3776,11 @@
       <c r="D10">
         <v>0.71290625451393907</v>
       </c>
-      <c r="E10">
-        <v>0.42202559965681857</v>
-      </c>
-      <c r="F10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -4222,14 +3793,11 @@
       <c r="D11">
         <v>0.68593817709085658</v>
       </c>
-      <c r="E11">
-        <v>0.36856911914124613</v>
-      </c>
-      <c r="F11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -4242,14 +3810,11 @@
       <c r="D12">
         <v>0.68977321970244121</v>
       </c>
-      <c r="E12">
-        <v>0.37617099143738142</v>
-      </c>
-      <c r="F12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -4262,14 +3827,11 @@
       <c r="D13">
         <v>0.71073234147046083</v>
       </c>
-      <c r="E13">
-        <v>0.41774015004815668</v>
-      </c>
-      <c r="F13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
@@ -4282,14 +3844,11 @@
       <c r="D14">
         <v>0.59904665607395646</v>
       </c>
-      <c r="E14">
-        <v>0.2004258376445604</v>
-      </c>
-      <c r="F14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
@@ -4302,14 +3861,11 @@
       <c r="D15">
         <v>0.68183590928788107</v>
       </c>
-      <c r="E15">
-        <v>0.36080633609061707</v>
-      </c>
-      <c r="F15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -4322,14 +3878,11 @@
       <c r="D16">
         <v>0.6746786075400838</v>
       </c>
-      <c r="E16">
-        <v>0.34649123380766012</v>
-      </c>
-      <c r="F16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -4342,14 +3895,11 @@
       <c r="D17">
         <v>0.6673985266502962</v>
       </c>
-      <c r="E17">
-        <v>0.33179604016011638</v>
-      </c>
-      <c r="F17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -4362,14 +3912,11 @@
       <c r="D18">
         <v>0.67851365015166842</v>
       </c>
-      <c r="E18">
-        <v>0.3540983968421374</v>
-      </c>
-      <c r="F18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -4382,14 +3929,11 @@
       <c r="D19">
         <v>0.67966199624440282</v>
       </c>
-      <c r="E19">
-        <v>0.35655867754465531</v>
-      </c>
-      <c r="F19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
@@ -4402,14 +3946,11 @@
       <c r="D20">
         <v>0.55776397515527953</v>
       </c>
-      <c r="E20">
-        <v>0.11802642030495659</v>
-      </c>
-      <c r="F20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
@@ -4422,14 +3963,11 @@
       <c r="D21">
         <v>0.6973205257836198</v>
       </c>
-      <c r="E21">
-        <v>0.39140358053663621</v>
-      </c>
-      <c r="F21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -4442,14 +3980,11 @@
       <c r="D22">
         <v>0.69910443449371662</v>
       </c>
-      <c r="E22">
-        <v>0.39465065054755161</v>
-      </c>
-      <c r="F22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -4462,14 +3997,11 @@
       <c r="D23">
         <v>0.68747652751697241</v>
       </c>
-      <c r="E23">
-        <v>0.37182426893404902</v>
-      </c>
-      <c r="F23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -4482,14 +4014,11 @@
       <c r="D24">
         <v>0.70958399537772643</v>
       </c>
-      <c r="E24">
-        <v>0.41541070365891869</v>
-      </c>
-      <c r="F24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -4502,14 +4031,11 @@
       <c r="D25">
         <v>0.66651740574895291</v>
       </c>
-      <c r="E25">
-        <v>0.33076362238009083</v>
-      </c>
-      <c r="F25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -4522,14 +4048,11 @@
       <c r="D26">
         <v>0.57989310992344356</v>
       </c>
-      <c r="E26">
-        <v>0.16681614504247441</v>
-      </c>
-      <c r="F26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -4542,14 +4065,11 @@
       <c r="D27">
         <v>0.53614762386248738</v>
       </c>
-      <c r="E27">
-        <v>7.2820976849241437E-2</v>
-      </c>
-      <c r="F27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -4562,14 +4082,11 @@
       <c r="D28">
         <v>0.59914776830853678</v>
       </c>
-      <c r="E28">
-        <v>0.19689553918796721</v>
-      </c>
-      <c r="F28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -4582,14 +4099,11 @@
       <c r="D29">
         <v>0.55505561172901918</v>
       </c>
-      <c r="E29">
-        <v>0.10989871150089491</v>
-      </c>
-      <c r="F29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -4602,14 +4116,11 @@
       <c r="D30">
         <v>0.49330492561028461</v>
       </c>
-      <c r="E30">
-        <v>-1.331782143725241E-2</v>
-      </c>
-      <c r="F30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -4622,32 +4133,25 @@
       <c r="D31">
         <v>0.71188068756319511</v>
       </c>
-      <c r="E31">
-        <v>0.42012387113737482</v>
-      </c>
-      <c r="F31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+      <c r="E31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
         <v>63.36±8</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
         <v>64.14±10</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>64.03±8</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>27.89±15</v>
       </c>
     </row>
   </sheetData>
@@ -4658,15 +4162,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4682,11 +4186,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -4699,14 +4200,11 @@
       <c r="D2">
         <v>0.92293081034233715</v>
       </c>
-      <c r="E2">
-        <v>0.83951915464058924</v>
-      </c>
-      <c r="F2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
@@ -4719,14 +4217,11 @@
       <c r="D3">
         <v>0.92293081034233715</v>
       </c>
-      <c r="E3">
-        <v>0.83951915464058924</v>
-      </c>
-      <c r="F3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
@@ -4739,14 +4234,11 @@
       <c r="D4">
         <v>0.92293081034233715</v>
       </c>
-      <c r="E4">
-        <v>0.83951915464058924</v>
-      </c>
-      <c r="F4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -4759,14 +4251,11 @@
       <c r="D5">
         <v>0.92293081034233715</v>
       </c>
-      <c r="E5">
-        <v>0.83951915464058924</v>
-      </c>
-      <c r="F5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
@@ -4779,14 +4268,11 @@
       <c r="D6">
         <v>0.92178246424960275</v>
       </c>
-      <c r="E6">
-        <v>0.83677546626130939</v>
-      </c>
-      <c r="F6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -4799,14 +4285,11 @@
       <c r="D7">
         <v>0.92293081034233715</v>
       </c>
-      <c r="E7">
-        <v>0.83951915464058924</v>
-      </c>
-      <c r="F7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
@@ -4819,14 +4302,11 @@
       <c r="D8">
         <v>0.92126968077423088</v>
       </c>
-      <c r="E8">
-        <v>0.83605527828035864</v>
-      </c>
-      <c r="F8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -4839,14 +4319,11 @@
       <c r="D9">
         <v>0.92126968077423088</v>
       </c>
-      <c r="E9">
-        <v>0.83605527828035864</v>
-      </c>
-      <c r="F9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -4859,14 +4336,11 @@
       <c r="D10">
         <v>0.92126968077423088</v>
       </c>
-      <c r="E10">
-        <v>0.83605527828035864</v>
-      </c>
-      <c r="F10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -4879,14 +4353,11 @@
       <c r="D11">
         <v>0.92293081034233715</v>
       </c>
-      <c r="E11">
-        <v>0.83951915464058924</v>
-      </c>
-      <c r="F11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -4899,14 +4370,11 @@
       <c r="D12">
         <v>0.92178246424960275</v>
       </c>
-      <c r="E12">
-        <v>0.83677546626130939</v>
-      </c>
-      <c r="F12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -4919,14 +4387,11 @@
       <c r="D13">
         <v>0.92178246424960275</v>
       </c>
-      <c r="E13">
-        <v>0.83677546626130939</v>
-      </c>
-      <c r="F13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
@@ -4939,14 +4404,11 @@
       <c r="D14">
         <v>0.92178246424960275</v>
       </c>
-      <c r="E14">
-        <v>0.83677546626130939</v>
-      </c>
-      <c r="F14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
@@ -4959,14 +4421,11 @@
       <c r="D15">
         <v>0.92178246424960275</v>
       </c>
-      <c r="E15">
-        <v>0.83677546626130939</v>
-      </c>
-      <c r="F15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -4979,14 +4438,11 @@
       <c r="D16">
         <v>0.92178246424960275</v>
       </c>
-      <c r="E16">
-        <v>0.83677546626130939</v>
-      </c>
-      <c r="F16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -4999,14 +4455,11 @@
       <c r="D17">
         <v>0.92293081034233715</v>
       </c>
-      <c r="E17">
-        <v>0.83951915464058924</v>
-      </c>
-      <c r="F17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -5019,14 +4472,11 @@
       <c r="D18">
         <v>0.9251047233858154</v>
       </c>
-      <c r="E18">
-        <v>0.84366633543489356</v>
-      </c>
-      <c r="F18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -5039,14 +4489,11 @@
       <c r="D19">
         <v>0.92178246424960275</v>
       </c>
-      <c r="E19">
-        <v>0.83677546626130939</v>
-      </c>
-      <c r="F19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
@@ -5059,14 +4506,11 @@
       <c r="D20">
         <v>0.92293081034233715</v>
       </c>
-      <c r="E20">
-        <v>0.83951915464058924</v>
-      </c>
-      <c r="F20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
@@ -5079,14 +4523,11 @@
       <c r="D21">
         <v>0.92293081034233715</v>
       </c>
-      <c r="E21">
-        <v>0.83951915464058924</v>
-      </c>
-      <c r="F21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -5099,14 +4540,11 @@
       <c r="D22">
         <v>0.92178246424960275</v>
       </c>
-      <c r="E22">
-        <v>0.83677546626130939</v>
-      </c>
-      <c r="F22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -5119,14 +4557,11 @@
       <c r="D23">
         <v>0.92178246424960275</v>
       </c>
-      <c r="E23">
-        <v>0.83677546626130939</v>
-      </c>
-      <c r="F23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -5139,14 +4574,11 @@
       <c r="D24">
         <v>0.92293081034233715</v>
       </c>
-      <c r="E24">
-        <v>0.83951915464058924</v>
-      </c>
-      <c r="F24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -5159,14 +4591,11 @@
       <c r="D25">
         <v>0.9251047233858154</v>
       </c>
-      <c r="E25">
-        <v>0.84366633543489356</v>
-      </c>
-      <c r="F25" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -5179,14 +4608,11 @@
       <c r="D26">
         <v>0.92178246424960275</v>
       </c>
-      <c r="E26">
-        <v>0.83677546626130939</v>
-      </c>
-      <c r="F26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -5199,14 +4625,11 @@
       <c r="D27">
         <v>0.92293081034233715</v>
       </c>
-      <c r="E27">
-        <v>0.83951915464058924</v>
-      </c>
-      <c r="F27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -5219,14 +4642,11 @@
       <c r="D28">
         <v>0.92178246424960275</v>
       </c>
-      <c r="E28">
-        <v>0.83677546626130939</v>
-      </c>
-      <c r="F28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -5239,14 +4659,11 @@
       <c r="D29">
         <v>0.92178246424960275</v>
       </c>
-      <c r="E29">
-        <v>0.83677546626130939</v>
-      </c>
-      <c r="F29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -5259,14 +4676,11 @@
       <c r="D30">
         <v>0.92126968077423088</v>
       </c>
-      <c r="E30">
-        <v>0.83605527828035864</v>
-      </c>
-      <c r="F30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -5279,32 +4693,25 @@
       <c r="D31">
         <v>0.9196085512061245</v>
       </c>
-      <c r="E31">
-        <v>0.83260465188579902</v>
-      </c>
-      <c r="F31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+      <c r="E31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
         <v>91.8±0</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
         <v>92.49±0</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>92.23±0</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>83.8±0</v>
       </c>
     </row>
   </sheetData>
@@ -5315,15 +4722,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5339,11 +4746,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -5356,14 +4760,11 @@
       <c r="D2">
         <v>0.92459193991044342</v>
       </c>
-      <c r="E2">
-        <v>0.84299644431978615</v>
-      </c>
-      <c r="F2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
@@ -5376,14 +4777,11 @@
       <c r="D3">
         <v>0.92459193991044342</v>
       </c>
-      <c r="E3">
-        <v>0.84299644431978615</v>
-      </c>
-      <c r="F3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
@@ -5396,14 +4794,11 @@
       <c r="D4">
         <v>0.92459193991044342</v>
       </c>
-      <c r="E4">
-        <v>0.84299644431978615</v>
-      </c>
-      <c r="F4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -5416,14 +4811,11 @@
       <c r="D5">
         <v>0.92459193991044342</v>
       </c>
-      <c r="E5">
-        <v>0.84299644431978615</v>
-      </c>
-      <c r="F5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
@@ -5436,14 +4828,11 @@
       <c r="D6">
         <v>0.92459193991044342</v>
       </c>
-      <c r="E6">
-        <v>0.84299644431978615</v>
-      </c>
-      <c r="F6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -5456,14 +4845,11 @@
       <c r="D7">
         <v>0.92459193991044342</v>
       </c>
-      <c r="E7">
-        <v>0.84299644431978615</v>
-      </c>
-      <c r="F7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
@@ -5476,14 +4862,11 @@
       <c r="D8">
         <v>0.92459193991044342</v>
       </c>
-      <c r="E8">
-        <v>0.84299644431978615</v>
-      </c>
-      <c r="F8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -5496,14 +4879,11 @@
       <c r="D9">
         <v>0.92459193991044342</v>
       </c>
-      <c r="E9">
-        <v>0.84299644431978615</v>
-      </c>
-      <c r="F9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -5516,14 +4896,11 @@
       <c r="D10">
         <v>0.92459193991044342</v>
       </c>
-      <c r="E10">
-        <v>0.84299644431978615</v>
-      </c>
-      <c r="F10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -5536,14 +4913,11 @@
       <c r="D11">
         <v>0.92459193991044342</v>
       </c>
-      <c r="E11">
-        <v>0.84299644431978615</v>
-      </c>
-      <c r="F11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -5556,14 +4930,11 @@
       <c r="D12">
         <v>0.92459193991044342</v>
       </c>
-      <c r="E12">
-        <v>0.84299644431978615</v>
-      </c>
-      <c r="F12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -5576,14 +4947,11 @@
       <c r="D13">
         <v>0.92459193991044342</v>
       </c>
-      <c r="E13">
-        <v>0.84299644431978615</v>
-      </c>
-      <c r="F13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
@@ -5596,14 +4964,11 @@
       <c r="D14">
         <v>0.92459193991044342</v>
       </c>
-      <c r="E14">
-        <v>0.84299644431978615</v>
-      </c>
-      <c r="F14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
@@ -5616,14 +4981,11 @@
       <c r="D15">
         <v>0.92459193991044342</v>
       </c>
-      <c r="E15">
-        <v>0.84299644431978615</v>
-      </c>
-      <c r="F15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -5636,14 +4998,11 @@
       <c r="D16">
         <v>0.92459193991044342</v>
       </c>
-      <c r="E16">
-        <v>0.84299644431978615</v>
-      </c>
-      <c r="F16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -5656,14 +5015,11 @@
       <c r="D17">
         <v>0.92459193991044342</v>
       </c>
-      <c r="E17">
-        <v>0.84299644431978615</v>
-      </c>
-      <c r="F17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -5676,14 +5032,11 @@
       <c r="D18">
         <v>0.92459193991044342</v>
       </c>
-      <c r="E18">
-        <v>0.84299644431978615</v>
-      </c>
-      <c r="F18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -5696,14 +5049,11 @@
       <c r="D19">
         <v>0.92459193991044342</v>
       </c>
-      <c r="E19">
-        <v>0.84299644431978615</v>
-      </c>
-      <c r="F19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
@@ -5716,14 +5066,11 @@
       <c r="D20">
         <v>0.92459193991044342</v>
       </c>
-      <c r="E20">
-        <v>0.84299644431978615</v>
-      </c>
-      <c r="F20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
@@ -5736,14 +5083,11 @@
       <c r="D21">
         <v>0.92459193991044342</v>
       </c>
-      <c r="E21">
-        <v>0.84299644431978615</v>
-      </c>
-      <c r="F21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -5756,14 +5100,11 @@
       <c r="D22">
         <v>0.92459193991044342</v>
       </c>
-      <c r="E22">
-        <v>0.84299644431978615</v>
-      </c>
-      <c r="F22" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -5776,14 +5117,11 @@
       <c r="D23">
         <v>0.92459193991044342</v>
       </c>
-      <c r="E23">
-        <v>0.84299644431978615</v>
-      </c>
-      <c r="F23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -5796,14 +5134,11 @@
       <c r="D24">
         <v>0.92459193991044342</v>
       </c>
-      <c r="E24">
-        <v>0.84299644431978615</v>
-      </c>
-      <c r="F24" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -5816,14 +5151,11 @@
       <c r="D25">
         <v>0.92459193991044342</v>
       </c>
-      <c r="E25">
-        <v>0.84299644431978615</v>
-      </c>
-      <c r="F25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -5836,14 +5168,11 @@
       <c r="D26">
         <v>0.92459193991044342</v>
       </c>
-      <c r="E26">
-        <v>0.84299644431978615</v>
-      </c>
-      <c r="F26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -5856,14 +5185,11 @@
       <c r="D27">
         <v>0.92459193991044342</v>
       </c>
-      <c r="E27">
-        <v>0.84299644431978615</v>
-      </c>
-      <c r="F27" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -5876,14 +5202,11 @@
       <c r="D28">
         <v>0.92459193991044342</v>
       </c>
-      <c r="E28">
-        <v>0.84299644431978615</v>
-      </c>
-      <c r="F28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -5896,14 +5219,11 @@
       <c r="D29">
         <v>0.92459193991044342</v>
       </c>
-      <c r="E29">
-        <v>0.84299644431978615</v>
-      </c>
-      <c r="F29" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -5916,14 +5236,11 @@
       <c r="D30">
         <v>0.92459193991044342</v>
       </c>
-      <c r="E30">
-        <v>0.84299644431978615</v>
-      </c>
-      <c r="F30" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -5936,32 +5253,25 @@
       <c r="D31">
         <v>0.92459193991044342</v>
       </c>
-      <c r="E31">
-        <v>0.84299644431978615</v>
-      </c>
-      <c r="F31" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+      <c r="E31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
         <v>92.09±0</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
         <v>92.78±0</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>92.46±0</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>84.3±0</v>
       </c>
     </row>
   </sheetData>
@@ -5972,15 +5282,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5996,11 +5306,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -6013,14 +5320,11 @@
       <c r="D2">
         <v>0.90453560595117721</v>
       </c>
-      <c r="E2">
-        <v>0.80187584002095469</v>
-      </c>
-      <c r="F2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
@@ -6033,14 +5337,11 @@
       <c r="D3">
         <v>0.90453560595117721</v>
       </c>
-      <c r="E3">
-        <v>0.80187584002095469</v>
-      </c>
-      <c r="F3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
@@ -6053,14 +5354,11 @@
       <c r="D4">
         <v>0.90453560595117721</v>
       </c>
-      <c r="E4">
-        <v>0.80187584002095469</v>
-      </c>
-      <c r="F4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -6073,14 +5371,11 @@
       <c r="D5">
         <v>0.90453560595117721</v>
       </c>
-      <c r="E5">
-        <v>0.80187584002095469</v>
-      </c>
-      <c r="F5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
@@ -6093,14 +5388,11 @@
       <c r="D6">
         <v>0.90453560595117721</v>
       </c>
-      <c r="E6">
-        <v>0.80187584002095469</v>
-      </c>
-      <c r="F6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -6113,14 +5405,11 @@
       <c r="D7">
         <v>0.90453560595117721</v>
       </c>
-      <c r="E7">
-        <v>0.80187584002095469</v>
-      </c>
-      <c r="F7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
@@ -6133,14 +5422,11 @@
       <c r="D8">
         <v>0.90453560595117721</v>
       </c>
-      <c r="E8">
-        <v>0.80187584002095469</v>
-      </c>
-      <c r="F8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -6153,14 +5439,11 @@
       <c r="D9">
         <v>0.90453560595117721</v>
       </c>
-      <c r="E9">
-        <v>0.80187584002095469</v>
-      </c>
-      <c r="F9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -6173,14 +5456,11 @@
       <c r="D10">
         <v>0.90453560595117721</v>
       </c>
-      <c r="E10">
-        <v>0.80187584002095469</v>
-      </c>
-      <c r="F10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -6193,14 +5473,11 @@
       <c r="D11">
         <v>0.90453560595117721</v>
       </c>
-      <c r="E11">
-        <v>0.80187584002095469</v>
-      </c>
-      <c r="F11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -6213,14 +5490,11 @@
       <c r="D12">
         <v>0.90453560595117721</v>
       </c>
-      <c r="E12">
-        <v>0.80187584002095469</v>
-      </c>
-      <c r="F12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -6233,14 +5507,11 @@
       <c r="D13">
         <v>0.90453560595117721</v>
       </c>
-      <c r="E13">
-        <v>0.80187584002095469</v>
-      </c>
-      <c r="F13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
@@ -6253,14 +5524,11 @@
       <c r="D14">
         <v>0.90453560595117721</v>
       </c>
-      <c r="E14">
-        <v>0.80187584002095469</v>
-      </c>
-      <c r="F14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
@@ -6273,14 +5541,11 @@
       <c r="D15">
         <v>0.90453560595117721</v>
       </c>
-      <c r="E15">
-        <v>0.80187584002095469</v>
-      </c>
-      <c r="F15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -6293,14 +5558,11 @@
       <c r="D16">
         <v>0.90453560595117721</v>
       </c>
-      <c r="E16">
-        <v>0.80187584002095469</v>
-      </c>
-      <c r="F16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -6313,14 +5575,11 @@
       <c r="D17">
         <v>0.90453560595117721</v>
       </c>
-      <c r="E17">
-        <v>0.80187584002095469</v>
-      </c>
-      <c r="F17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -6333,14 +5592,11 @@
       <c r="D18">
         <v>0.90453560595117721</v>
       </c>
-      <c r="E18">
-        <v>0.80187584002095469</v>
-      </c>
-      <c r="F18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -6353,14 +5609,11 @@
       <c r="D19">
         <v>0.90453560595117721</v>
       </c>
-      <c r="E19">
-        <v>0.80187584002095469</v>
-      </c>
-      <c r="F19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
@@ -6373,14 +5626,11 @@
       <c r="D20">
         <v>0.90453560595117721</v>
       </c>
-      <c r="E20">
-        <v>0.80187584002095469</v>
-      </c>
-      <c r="F20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
@@ -6393,14 +5643,11 @@
       <c r="D21">
         <v>0.90453560595117721</v>
       </c>
-      <c r="E21">
-        <v>0.80187584002095469</v>
-      </c>
-      <c r="F21" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -6413,14 +5660,11 @@
       <c r="D22">
         <v>0.90453560595117721</v>
       </c>
-      <c r="E22">
-        <v>0.80187584002095469</v>
-      </c>
-      <c r="F22" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -6433,14 +5677,11 @@
       <c r="D23">
         <v>0.90453560595117721</v>
       </c>
-      <c r="E23">
-        <v>0.80187584002095469</v>
-      </c>
-      <c r="F23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -6453,14 +5694,11 @@
       <c r="D24">
         <v>0.90453560595117721</v>
       </c>
-      <c r="E24">
-        <v>0.80187584002095469</v>
-      </c>
-      <c r="F24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -6473,14 +5711,11 @@
       <c r="D25">
         <v>0.90453560595117721</v>
       </c>
-      <c r="E25">
-        <v>0.80187584002095469</v>
-      </c>
-      <c r="F25" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -6493,14 +5728,11 @@
       <c r="D26">
         <v>0.90453560595117721</v>
       </c>
-      <c r="E26">
-        <v>0.80187584002095469</v>
-      </c>
-      <c r="F26" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -6513,14 +5745,11 @@
       <c r="D27">
         <v>0.90453560595117721</v>
       </c>
-      <c r="E27">
-        <v>0.80187584002095469</v>
-      </c>
-      <c r="F27" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -6533,14 +5762,11 @@
       <c r="D28">
         <v>0.90453560595117721</v>
       </c>
-      <c r="E28">
-        <v>0.80187584002095469</v>
-      </c>
-      <c r="F28" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -6553,14 +5779,11 @@
       <c r="D29">
         <v>0.90453560595117721</v>
       </c>
-      <c r="E29">
-        <v>0.80187584002095469</v>
-      </c>
-      <c r="F29" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -6573,14 +5796,11 @@
       <c r="D30">
         <v>0.90453560595117721</v>
       </c>
-      <c r="E30">
-        <v>0.80187584002095469</v>
-      </c>
-      <c r="F30" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -6593,32 +5813,25 @@
       <c r="D31">
         <v>0.90453560595117721</v>
       </c>
-      <c r="E31">
-        <v>0.80187584002095469</v>
-      </c>
-      <c r="F31" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+      <c r="E31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
         <v>89.64±0</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
         <v>90.23±0</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>90.45±0</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>80.19±0</v>
       </c>
     </row>
   </sheetData>
@@ -6629,15 +5842,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6653,11 +5866,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -6670,14 +5880,11 @@
       <c r="D2">
         <v>0.64962444027155863</v>
       </c>
-      <c r="E2">
-        <v>0.38375051237900171</v>
-      </c>
-      <c r="F2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
@@ -6690,14 +5897,11 @@
       <c r="D3">
         <v>0.67517694641051562</v>
       </c>
-      <c r="E3">
-        <v>0.41885240333220097</v>
-      </c>
-      <c r="F3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
@@ -6710,14 +5914,11 @@
       <c r="D4">
         <v>0.6574173046367181</v>
       </c>
-      <c r="E4">
-        <v>0.3930963635416006</v>
-      </c>
-      <c r="F4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -6730,14 +5931,11 @@
       <c r="D5">
         <v>0.66073956377293075</v>
       </c>
-      <c r="E5">
-        <v>0.39852222757936762</v>
-      </c>
-      <c r="F5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
@@ -6750,14 +5948,11 @@
       <c r="D6">
         <v>0.64630218113534588</v>
       </c>
-      <c r="E6">
-        <v>0.37828830497807109</v>
-      </c>
-      <c r="F6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -6770,14 +5965,11 @@
       <c r="D7">
         <v>0.6891015455727284</v>
       </c>
-      <c r="E7">
-        <v>0.43584129616123701</v>
-      </c>
-      <c r="F7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
@@ -6790,14 +5982,11 @@
       <c r="D8">
         <v>0.66853242813809044</v>
       </c>
-      <c r="E8">
-        <v>0.40806869278905211</v>
-      </c>
-      <c r="F8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -6810,14 +5999,11 @@
       <c r="D9">
         <v>0.66406182290914351</v>
       </c>
-      <c r="E9">
-        <v>0.4039267663255886</v>
-      </c>
-      <c r="F9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -6830,14 +6016,11 @@
       <c r="D10">
         <v>0.65907843420482448</v>
       </c>
-      <c r="E10">
-        <v>0.39581205763263511</v>
-      </c>
-      <c r="F10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -6850,14 +6033,11 @@
       <c r="D11">
         <v>0.63633540372670805</v>
       </c>
-      <c r="E11">
-        <v>0.3617259550951657</v>
-      </c>
-      <c r="F11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -6870,14 +6050,11 @@
       <c r="D12">
         <v>0.62739419326881418</v>
       </c>
-      <c r="E12">
-        <v>0.35476766648180619</v>
-      </c>
-      <c r="F12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -6890,14 +6067,11 @@
       <c r="D13">
         <v>0.65409504550050568</v>
       </c>
-      <c r="E13">
-        <v>0.38764760480986049</v>
-      </c>
-      <c r="F13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
@@ -6910,14 +6084,11 @@
       <c r="D14">
         <v>0.66469738552650592</v>
       </c>
-      <c r="E14">
-        <v>0.3987828785241716</v>
-      </c>
-      <c r="F14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
@@ -6930,14 +6101,11 @@
       <c r="D15">
         <v>0.66457460638451527</v>
       </c>
-      <c r="E15">
-        <v>0.40803046368849072</v>
-      </c>
-      <c r="F15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -6950,14 +6118,11 @@
       <c r="D16">
         <v>0.65179835331503699</v>
       </c>
-      <c r="E16">
-        <v>0.3908984756862619</v>
-      </c>
-      <c r="F16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -6970,14 +6135,11 @@
       <c r="D17">
         <v>0.66904521161346231</v>
       </c>
-      <c r="E17">
-        <v>0.41199685448940959</v>
-      </c>
-      <c r="F17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -6990,14 +6152,11 @@
       <c r="D18">
         <v>0.61359237324859173</v>
       </c>
-      <c r="E18">
-        <v>0.32691298085901621</v>
-      </c>
-      <c r="F18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -7010,14 +6169,11 @@
       <c r="D19">
         <v>0.62969088545428276</v>
       </c>
-      <c r="E19">
-        <v>0.35051751543371878</v>
-      </c>
-      <c r="F19" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
@@ -7030,14 +6186,11 @@
       <c r="D20">
         <v>0.66073956377293075</v>
       </c>
-      <c r="E20">
-        <v>0.39852222757936762</v>
-      </c>
-      <c r="F20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
@@ -7050,14 +6203,11 @@
       <c r="D21">
         <v>0.61921132457027306</v>
       </c>
-      <c r="E21">
-        <v>0.32858361903361072</v>
-      </c>
-      <c r="F21" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -7070,14 +6220,11 @@
       <c r="D22">
         <v>0.61625740286003183</v>
       </c>
-      <c r="E22">
-        <v>0.29468575530152491</v>
-      </c>
-      <c r="F22" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -7090,14 +6237,11 @@
       <c r="D23">
         <v>0.66789686552072802</v>
       </c>
-      <c r="E23">
-        <v>0.41336879454001402</v>
-      </c>
-      <c r="F23" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -7110,14 +6254,11 @@
       <c r="D24">
         <v>0.64183157590639905</v>
       </c>
-      <c r="E24">
-        <v>0.37463602812954527</v>
-      </c>
-      <c r="F24" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -7130,14 +6271,11 @@
       <c r="D25">
         <v>0.63465260725119166</v>
       </c>
-      <c r="E25">
-        <v>0.32097846733455071</v>
-      </c>
-      <c r="F25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -7150,14 +6288,11 @@
       <c r="D26">
         <v>0.65460782897587755</v>
       </c>
-      <c r="E26">
-        <v>0.3918952577337233</v>
-      </c>
-      <c r="F26" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -7170,14 +6305,11 @@
       <c r="D27">
         <v>0.65690452116134623</v>
       </c>
-      <c r="E27">
-        <v>0.3890139914702444</v>
-      </c>
-      <c r="F27" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -7190,14 +6322,11 @@
       <c r="D28">
         <v>0.64578939765997401</v>
       </c>
-      <c r="E28">
-        <v>0.37391455533535389</v>
-      </c>
-      <c r="F28" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -7210,14 +6339,11 @@
       <c r="D29">
         <v>0.61088400982233138</v>
       </c>
-      <c r="E29">
-        <v>0.27491515816076689</v>
-      </c>
-      <c r="F29" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -7230,14 +6356,11 @@
       <c r="D30">
         <v>0.60003611151235015</v>
       </c>
-      <c r="E30">
-        <v>0.27573074683354792</v>
-      </c>
-      <c r="F30" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -7250,32 +6373,25 @@
       <c r="D31">
         <v>0.63965766286292081</v>
       </c>
-      <c r="E31">
-        <v>0.36727798493892072</v>
-      </c>
-      <c r="F31" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+      <c r="E31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
         <v>60.35±2</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
         <v>47.41±5</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>64.77±2</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>37.37±4</v>
       </c>
     </row>
   </sheetData>
